--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pio/NTU EE/Github/Sokoban-Solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D0142B-CA29-B544-9C8C-304BDE751440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E74EBD2-FA9B-B24A-AB2C-9230120DA282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="500" windowWidth="30640" windowHeight="19600" xr2:uid="{973C387F-3D85-754D-9163-E945A74214DB}"/>
+    <workbookView xWindow="7760" yWindow="2000" windowWidth="30640" windowHeight="19600" xr2:uid="{973C387F-3D85-754D-9163-E945A74214DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,6 +517,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,38 +835,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575F0A97-610D-7E47-AEB1-0AC1847C701C}">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="140" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="12.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="12.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="12.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
       <c r="H1" t="s">
         <v>99</v>
       </c>
@@ -875,722 +873,695 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>0.65200000000000002</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>33</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>33</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f t="shared" ref="E2:E49" si="0" xml:space="preserve"> (C2-D2)/D2</f>
         <v>0</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>16</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>3.41</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>41</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>41</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.29599999999999999</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>23</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>29</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f xml:space="preserve"> (C5-D5)/D5</f>
         <v>-0.20689655172413793</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>3.1909999999999998</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>25</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>27</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>-7.407407407407407E-2</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>460.96800000000002</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>107</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>115</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>-6.9565217391304349E-2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>21.419</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>26</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>38</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>-0.31578947368421051</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>330.47899999999998</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>97</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>99</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>-2.0202020202020204E-2</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>0.28699999999999998</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>30</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>30</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>844.67899999999997</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>87</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>121</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>-0.28099173553719009</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11"/>
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>19.823</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>78</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>78</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>1.159</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>49</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>49</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>25.425999999999998</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>52</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>59</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>-0.11864406779661017</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="G14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>1.3759999999999999</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>51</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>51</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>0.92200000000000004</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>37</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>43</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>-0.13953488372093023</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>2085.174</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>100</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>-1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>-1</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0.443</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>25</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>31</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>-0.19354838709677419</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>13.875</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>71</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>95</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>-0.25263157894736843</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>5.2350000000000003</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>41</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>45</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>-8.8888888888888892E-2</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>2.0070000000000001</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>50</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>64</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>-0.21875</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0.06</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>17</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>19</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>-0.10526315789473684</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>1.403</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>47</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>49</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>-4.0816326530612242E-2</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>56</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>58</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>-3.4482758620689655E-2</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>1.472</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>35</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>35</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>3.3050000000000002</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>29</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>33</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>-0.12121212121212122</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>10.404</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>41</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>42</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>-2.3809523809523808E-2</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>12.542999999999999</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>50</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>50</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>0.93400000000000005</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>33</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>33</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>125.383</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>104</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>140</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>-0.25714285714285712</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>0.35</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>21</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>21</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>17</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>17</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>19.849</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>35</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>36</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>-2.7777777777777776E-2</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>28.609000000000002</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>41</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>53</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>-0.22641509433962265</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>9.1590000000000007</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>30</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>45</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>28.420999999999999</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>71</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>71</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
+      <c r="G36"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>1.802</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>37</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>37</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="3"/>
-      <c r="G37" s="4"/>
       <c r="H37">
         <v>0.80300000000000005</v>
       </c>
@@ -1599,369 +1570,352 @@
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>179.58199999999999</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>85</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>93</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>-8.6021505376344093E-2</v>
       </c>
       <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
+      <c r="G38"/>
       <c r="O38" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>0.92100000000000004</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>20</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>25</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <f t="shared" si="0"/>
         <v>-0.2</v>
       </c>
       <c r="F39" s="3"/>
-      <c r="G39" s="4"/>
+      <c r="G39"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>13.343999999999999</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>50</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>61</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>-0.18032786885245902</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>85.641000000000005</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>47</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>61</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <f t="shared" si="0"/>
         <v>-0.22950819672131148</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>31.696999999999999</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>61</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>66</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <f t="shared" si="0"/>
         <v>-7.575757575757576E-2</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
+      <c r="G42"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>2E-3</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>1</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>1</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>6.2560000000000002</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>45</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>47</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <f t="shared" si="0"/>
         <v>-4.2553191489361701E-2</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>1.732</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>41</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>47</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <f t="shared" si="0"/>
         <v>-0.1276595744680851</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="4"/>
+      <c r="G45"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>79.992000000000004</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>83</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>101</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <f t="shared" si="0"/>
         <v>-0.17821782178217821</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>22.454000000000001</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>64</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>67</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <f t="shared" si="0"/>
         <v>-4.4776119402985072E-2</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+    </row>
+    <row r="48" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>97.070999999999998</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>82</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>-1</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>82.296999999999997</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>76</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>88</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <f t="shared" si="0"/>
         <v>-0.13636363636363635</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
+      <c r="G49"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>37</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <v>0.80300000000000005</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>-1</v>
       </c>
-      <c r="E50" s="10">
-        <f t="shared" ref="E3:E50" si="1" xml:space="preserve"> (C50-D50)/D50*100</f>
+      <c r="E50" s="9">
+        <f t="shared" ref="E50" si="1" xml:space="preserve"> (C50-D50)/D50*100</f>
         <v>-180.29999999999998</v>
       </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="15">
+        <v>0.79100000000000004</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>100</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>193</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>64</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>5.7220000000000004</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>5.56</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>169</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>2617.9699999999998</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>2318</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>120</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>125.749</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>133.85</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>127</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>0.52</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>6.28E-3</v>
       </c>
       <c r="F80">
@@ -1993,16 +1947,16 @@
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>169</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>0.09</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>4.9100000000000003E-3</v>
       </c>
       <c r="F81">
@@ -2034,16 +1988,16 @@
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>163</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>0.83</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="4">
         <v>6.6699999999999997E-3</v>
       </c>
       <c r="F82">
@@ -2075,16 +2029,16 @@
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>193</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>0.4</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4">
         <v>1.005E-2</v>
       </c>
       <c r="F83">
@@ -2116,16 +2070,16 @@
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>281</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>11.99</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4">
         <v>4.47E-3</v>
       </c>
       <c r="F84">
@@ -2157,16 +2111,16 @@
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>289</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>78.62</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="4">
         <v>2.9399999999999999E-3</v>
       </c>
       <c r="F85">
@@ -2198,16 +2152,16 @@
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>393</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>3600</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="4">
         <v>5.4400000000000004E-3</v>
       </c>
       <c r="F86">
@@ -2239,16 +2193,16 @@
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>289</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>10.43</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="4">
         <v>5.0400000000000002E-3</v>
       </c>
       <c r="F87">
@@ -2280,16 +2234,16 @@
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>127</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>0.36</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4">
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="F88">
@@ -2321,16 +2275,16 @@
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>353</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>60.12</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="4">
         <v>1.1560000000000001E-2</v>
       </c>
       <c r="F89">
@@ -2362,16 +2316,16 @@
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>217</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>8.02</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="4">
         <v>3.82E-3</v>
       </c>
       <c r="F90">
@@ -2403,16 +2357,16 @@
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>217</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>1.25</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="4">
         <v>2.3800000000000002E-3</v>
       </c>
       <c r="F91">
@@ -2444,16 +2398,16 @@
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>253</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>22.38</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4">
         <v>4.2399999999999998E-3</v>
       </c>
       <c r="F92">
@@ -2485,16 +2439,16 @@
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>127</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>0.64</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4">
         <v>3.0500000000000002E-3</v>
       </c>
       <c r="F93">
@@ -2526,16 +2480,16 @@
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>190</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>0.49</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4">
         <v>3.31E-3</v>
       </c>
       <c r="F94">
@@ -2567,16 +2521,16 @@
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>321</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>286.66000000000003</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4">
         <v>3600</v>
       </c>
       <c r="F95">
@@ -2608,16 +2562,16 @@
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>169</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>0.91</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="4">
         <v>4.79E-3</v>
       </c>
       <c r="F96">
@@ -2649,16 +2603,16 @@
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>190</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>3.3</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="4">
         <v>2.0899999999999998E-3</v>
       </c>
       <c r="F97">
@@ -2690,16 +2644,16 @@
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>193</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>0.93</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="F98">
@@ -2731,16 +2685,16 @@
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>217</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>1.51</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4">
         <v>5.5300000000000002E-3</v>
       </c>
       <c r="F99">
@@ -2772,16 +2726,16 @@
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>127</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>0.05</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="4">
         <v>1.83E-3</v>
       </c>
       <c r="F100">
@@ -2813,16 +2767,16 @@
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>190</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4">
         <v>3.6900000000000001E-3</v>
       </c>
       <c r="F101">
@@ -2854,16 +2808,16 @@
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>148</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>1.54</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="F102">
@@ -2895,16 +2849,16 @@
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>148</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>0.48</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="4">
         <v>4.0800000000000003E-3</v>
       </c>
       <c r="F103">
@@ -2936,16 +2890,16 @@
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>197</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>1.076E-2</v>
       </c>
       <c r="F104">
@@ -2977,16 +2931,16 @@
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>193</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>4.8099999999999996</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>4.3299999999999996E-3</v>
       </c>
       <c r="F105">
@@ -3018,16 +2972,16 @@
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>148</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>1.69</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>4.1099999999999999E-3</v>
       </c>
       <c r="F106">
@@ -3059,16 +3013,16 @@
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>148</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>0.33</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4">
         <v>2.5200000000000001E-3</v>
       </c>
       <c r="F107">
@@ -3100,16 +3054,16 @@
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>298</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>14.1</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <v>4.7800000000000004E-3</v>
       </c>
       <c r="F108">
@@ -3141,16 +3095,16 @@
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <v>169</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>1.47</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4">
         <v>1.078E-2</v>
       </c>
       <c r="F109">
@@ -3182,16 +3136,16 @@
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <v>197</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>2.0699999999999998E-3</v>
       </c>
       <c r="F110">
@@ -3223,16 +3177,16 @@
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>197</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>2.89</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>1.367E-2</v>
       </c>
       <c r="F111">
@@ -3264,16 +3218,16 @@
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>197</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>5.65</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>3.1099999999999999E-3</v>
       </c>
       <c r="F112">
@@ -3305,16 +3259,16 @@
       </c>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>271</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>14.12</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>4.5799999999999999E-3</v>
       </c>
       <c r="F113">
@@ -3346,16 +3300,16 @@
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>421</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>3600</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4">
         <v>2.7799999999999998E-2</v>
       </c>
       <c r="F114">
@@ -3387,16 +3341,16 @@
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>451</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>3600</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4">
         <v>3600</v>
       </c>
       <c r="F115">
@@ -3428,16 +3382,16 @@
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>289</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>22.45</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="4">
         <v>3.2200000000000002E-3</v>
       </c>
       <c r="F116">
@@ -3469,16 +3423,16 @@
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <v>281</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>3.01</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="4">
         <v>1.7600000000000001E-3</v>
       </c>
       <c r="F117">
@@ -3510,16 +3464,16 @@
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>271</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>8.06</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="4">
         <v>3.8600000000000001E-3</v>
       </c>
       <c r="F118">
@@ -3551,16 +3505,16 @@
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>169</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>1.64</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="4">
         <v>4.2399999999999998E-3</v>
       </c>
       <c r="F119">
@@ -3592,16 +3546,16 @@
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>193</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>10.45</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="4">
         <v>9.92E-3</v>
       </c>
       <c r="F120">
@@ -3633,16 +3587,16 @@
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>225</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>11.14</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4">
         <v>1.7829999999999999E-2</v>
       </c>
       <c r="F121">
@@ -3674,16 +3628,16 @@
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>325</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>16.77</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4">
         <v>7.0200000000000002E-3</v>
       </c>
       <c r="F122">
@@ -3715,16 +3669,16 @@
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>31</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>0.01</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="4">
         <v>1.9400000000000001E-3</v>
       </c>
       <c r="F123">
@@ -3756,16 +3710,16 @@
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>169</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>13.1</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="4">
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="F124">
@@ -3797,16 +3751,16 @@
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>169</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>1.08</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="4">
         <v>2.97E-3</v>
       </c>
       <c r="F125">
@@ -3838,16 +3792,16 @@
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>232</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>7.05</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="4">
         <v>3.4099999999999998E-3</v>
       </c>
       <c r="F126">
@@ -3879,16 +3833,16 @@
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>257</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>13.93</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4">
         <v>7.0519999999999999E-2</v>
       </c>
       <c r="F127">
@@ -3920,16 +3874,16 @@
       </c>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>321</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>23.24</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="4">
         <v>3600</v>
       </c>
       <c r="F128">
@@ -3961,16 +3915,16 @@
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <v>211</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>4.76</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="4">
         <v>3.7399999999999998E-3</v>
       </c>
       <c r="F129">
